--- a/data_processed/20250801/BTCUSDQMOMENT_20250801.xlsx
+++ b/data_processed/20250801/BTCUSDQMOMENT_20250801.xlsx
@@ -1158,10 +1158,18 @@
       <c r="H19" t="n">
         <v>5.495614543167376</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>0.1714395123849262</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.1601577483382351</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.31488523642518</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.045464479339962</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">

--- a/data_processed/20250801/BTCUSDQMOMENT_20250801.xlsx
+++ b/data_processed/20250801/BTCUSDQMOMENT_20250801.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>10.68370501309695</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>-0.004430112316335983</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.2432629225634229</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.04778595182768761</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.671675381450449</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1200,10 +1208,18 @@
       <c r="H20" t="n">
         <v>13.22339232479555</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>-0.1807720062054129</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.3297608760644796</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.05159556685682618</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.232560601757156</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250801/BTCUSDQMOMENT_20250801.xlsx
+++ b/data_processed/20250801/BTCUSDQMOMENT_20250801.xlsx
@@ -654,19 +654,19 @@
         <v>0.4027397260273973</v>
       </c>
       <c r="D6" t="n">
-        <v>116313.6892926753</v>
+        <v>116311.8085317966</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.06316266302588888</v>
+        <v>-0.06347546924066284</v>
       </c>
       <c r="F6" t="n">
-        <v>0.260698015500307</v>
+        <v>0.2630818951983989</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.064236946379415</v>
+        <v>-1.148958191313806</v>
       </c>
       <c r="H6" t="n">
-        <v>9.131744460486976</v>
+        <v>9.973416671127778</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -722,19 +722,19 @@
         <v>0.8246575342465754</v>
       </c>
       <c r="D8" t="n">
-        <v>118138.8137406677</v>
+        <v>117984.6608108865</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.06667518574097177</v>
+        <v>-0.07060723159594018</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2193771774660952</v>
+        <v>0.2300712166986094</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.7933588121451306</v>
+        <v>-0.9941041241852699</v>
       </c>
       <c r="H8" t="n">
-        <v>6.048725508085009</v>
+        <v>7.116001874476617</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -756,19 +756,19 @@
         <v>0.9013698630136986</v>
       </c>
       <c r="D9" t="n">
-        <v>119745.4730861028</v>
+        <v>119745.3001773226</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.1002284960908392</v>
+        <v>-0.09930866618743497</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3790583278011233</v>
+        <v>0.3712322134719819</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.221338115562919</v>
+        <v>-2.078797047244133</v>
       </c>
       <c r="H9" t="n">
-        <v>14.51017870713746</v>
+        <v>13.11549548757357</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -790,19 +790,19 @@
         <v>1.150684931506849</v>
       </c>
       <c r="D10" t="n">
-        <v>121212.6134114404</v>
+        <v>121209.9761724819</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1336728119096228</v>
+        <v>-0.1334821789809024</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4569394496300273</v>
+        <v>0.455209889918833</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.943836191394146</v>
+        <v>-1.923092694554094</v>
       </c>
       <c r="H10" t="n">
-        <v>9.732984971847253</v>
+        <v>9.561231332881119</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -824,19 +824,19 @@
         <v>1.397260273972603</v>
       </c>
       <c r="D11" t="n">
-        <v>123219.3333922195</v>
+        <v>123185.7306783697</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1954090660992617</v>
+        <v>-0.2117033195092484</v>
       </c>
       <c r="F11" t="n">
-        <v>0.677125536434439</v>
+        <v>0.7983813384258449</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.049129730717933</v>
+        <v>-2.569052455221928</v>
       </c>
       <c r="H11" t="n">
-        <v>8.139574692409651</v>
+        <v>12.27765383625103</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -858,19 +858,19 @@
         <v>0.00821917808219178</v>
       </c>
       <c r="D12" t="n">
-        <v>113579.4489864248</v>
+        <v>113569.9061873077</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.1746672890879022</v>
+        <v>-0.1757385252146718</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1602033150651809</v>
+        <v>0.1635854293001148</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.269130992174429</v>
+        <v>-1.388265908861001</v>
       </c>
       <c r="H12" t="n">
-        <v>8.541497674034906</v>
+        <v>9.496335272112061</v>
       </c>
       <c r="I12" t="n">
         <v>-0.2069062552332838</v>
@@ -900,19 +900,19 @@
         <v>0.0273972602739726</v>
       </c>
       <c r="D13" t="n">
-        <v>113550.0478412691</v>
+        <v>113608.3707815903</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1076404733954816</v>
+        <v>-0.1029819612380781</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1778826019707594</v>
+        <v>0.1548964532373811</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.861918452404904</v>
+        <v>-0.8248907173442492</v>
       </c>
       <c r="H13" t="n">
-        <v>16.02882419570564</v>
+        <v>6.782178154826677</v>
       </c>
       <c r="I13" t="n">
         <v>0.08849893151028877</v>
@@ -942,19 +942,19 @@
         <v>0.01095890410958904</v>
       </c>
       <c r="D14" t="n">
-        <v>113540.1554043886</v>
+        <v>113556.7920465209</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.1577370454315312</v>
+        <v>-0.1555273097598965</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1851387028035895</v>
+        <v>0.166218193832818</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.921151792448052</v>
+        <v>-1.745819275818429</v>
       </c>
       <c r="H14" t="n">
-        <v>29.65297934668477</v>
+        <v>13.76211482537033</v>
       </c>
       <c r="I14" t="n">
         <v>-0.2389228454194642</v>
@@ -984,19 +984,19 @@
         <v>0.0136986301369863</v>
       </c>
       <c r="D15" t="n">
-        <v>113558.0023209694</v>
+        <v>113619.7383582534</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1427593777903063</v>
+        <v>-0.1359635606531136</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2028953312778801</v>
+        <v>0.1586718942005126</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.13410895738178</v>
+        <v>-1.015307318833194</v>
       </c>
       <c r="H15" t="n">
-        <v>31.92033930959777</v>
+        <v>8.886208270400793</v>
       </c>
       <c r="I15" t="n">
         <v>-0.2251397076061769</v>
@@ -1068,19 +1068,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D17" t="n">
-        <v>113418.5744302873</v>
+        <v>113554.6811280577</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1395754437277728</v>
+        <v>-0.1208637641525671</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3746780103224442</v>
+        <v>0.1488618419469296</v>
       </c>
       <c r="G17" t="n">
-        <v>-11.25777384707849</v>
+        <v>-1.148920369578007</v>
       </c>
       <c r="H17" t="n">
-        <v>217.1879615401903</v>
+        <v>9.843347091434062</v>
       </c>
       <c r="I17" t="n">
         <v>-0.1006981446486413</v>
@@ -1110,19 +1110,19 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="D18" t="n">
-        <v>113451.7252490252</v>
+        <v>113668.5360785112</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.102513819985299</v>
+        <v>-0.08675937881418373</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2186701663636986</v>
+        <v>0.1394736117780836</v>
       </c>
       <c r="G18" t="n">
-        <v>-3.590792801042781</v>
+        <v>-0.5656137110319629</v>
       </c>
       <c r="H18" t="n">
-        <v>34.29150666739685</v>
+        <v>6.227484561738295</v>
       </c>
       <c r="I18" t="n">
         <v>0.2514018834300679</v>
@@ -1194,19 +1194,19 @@
         <v>0.0958904109589041</v>
       </c>
       <c r="D20" t="n">
-        <v>114310.2880165479</v>
+        <v>114315.533801794</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.05886141333143947</v>
+        <v>-0.05863437011426385</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2006572860078378</v>
+        <v>0.1999913316923044</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.56673298737718</v>
+        <v>-1.553362806442369</v>
       </c>
       <c r="H20" t="n">
-        <v>13.22339232479555</v>
+        <v>13.16252457306894</v>
       </c>
       <c r="I20" t="n">
         <v>-0.1807720062054129</v>

--- a/data_processed/20250801/BTCUSDQMOMENT_20250801.xlsx
+++ b/data_processed/20250801/BTCUSDQMOMENT_20250801.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>11.59072471040266</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.1987370408061152</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2543632334419188</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.04041260025214955</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.604755324742547</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/data_processed/20250801/BTCUSDQMOMENT_20250801.xlsx
+++ b/data_processed/20250801/BTCUSDQMOMENT_20250801.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>11.61592393302996</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>-0.213011757062836</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4629671583968761</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.4214911133908249</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.799257955029619</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
